--- a/forecast_summary_B083NN4MLZ.xlsx
+++ b/forecast_summary_B083NN4MLZ.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>0.05045293265613318</v>
       </c>
       <c r="D2" t="n">
-        <v>13.70903723944342</v>
+        <v>13.87227174117425</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -511,6 +516,9 @@
         <is>
           <t>Z690 AERO G</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>0.04923329195344999</v>
       </c>
       <c r="D3" t="n">
-        <v>13.34971648505072</v>
+        <v>13.44079015036531</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -547,6 +555,9 @@
         <is>
           <t>Z690 AERO G</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>0.03298551776082886</v>
       </c>
       <c r="D4" t="n">
-        <v>13.66688075239652</v>
+        <v>13.05699733177372</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -583,6 +594,9 @@
         <is>
           <t>Z690 AERO G</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -590,13 +604,13 @@
         <v>45648</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0.01435618029376926</v>
       </c>
       <c r="D5" t="n">
-        <v>14.91762939008727</v>
+        <v>13.32810210434672</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -619,6 +633,9 @@
         <is>
           <t>Z690 AERO G</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>0.00308935093817744</v>
       </c>
       <c r="D6" t="n">
-        <v>12.84529172427773</v>
+        <v>13.98847186675251</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -655,6 +672,9 @@
         <is>
           <t>Z690 AERO G</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>3.016577570677355e-05</v>
       </c>
       <c r="D7" t="n">
-        <v>13.02553592199389</v>
+        <v>13.20251784290808</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -691,6 +711,9 @@
         <is>
           <t>Z690 AERO G</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>0.0004066659197260976</v>
       </c>
       <c r="D8" t="n">
-        <v>14.55912681967141</v>
+        <v>13.39548725987527</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -727,6 +750,9 @@
         <is>
           <t>Z690 AERO G</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>0.0004625619214652938</v>
       </c>
       <c r="D9" t="n">
-        <v>14.13699088317177</v>
+        <v>12.75049961183787</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -763,6 +789,9 @@
         <is>
           <t>Z690 AERO G</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>4.430006468496267e-05</v>
       </c>
       <c r="D10" t="n">
-        <v>13.46320876074985</v>
+        <v>12.93074979706564</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -799,6 +828,9 @@
         <is>
           <t>Z690 AERO G</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>0.0002592097080019737</v>
       </c>
       <c r="D11" t="n">
-        <v>13.7139354604008</v>
+        <v>12.80151300377096</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -835,6 +867,9 @@
         <is>
           <t>Z690 AERO G</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>0.0008829221041189505</v>
       </c>
       <c r="D12" t="n">
-        <v>12.8963162905962</v>
+        <v>12.96661017306832</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -871,6 +906,9 @@
         <is>
           <t>Z690 AERO G</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>0.0008254403506909013</v>
       </c>
       <c r="D13" t="n">
-        <v>14.20425696059493</v>
+        <v>13.58492990828517</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -907,6 +945,9 @@
         <is>
           <t>Z690 AERO G</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>2.820625787355916e-05</v>
       </c>
       <c r="D14" t="n">
-        <v>12.42559072522778</v>
+        <v>13.38444673952842</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -943,6 +984,9 @@
         <is>
           <t>Z690 AERO G</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>-0.000400549781654183</v>
       </c>
       <c r="D15" t="n">
-        <v>11.88922719507327</v>
+        <v>13.6361634406933</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>Z690 AERO G</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>0.0001138066957432704</v>
       </c>
       <c r="D16" t="n">
-        <v>12.44471886503857</v>
+        <v>12.79957844574857</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>Z690 AERO G</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>0.0007588463804058605</v>
       </c>
       <c r="D17" t="n">
-        <v>13.09704005172379</v>
+        <v>13.1373529836481</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>Z690 AERO G</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>0.0005829380720322679</v>
       </c>
       <c r="D18" t="n">
-        <v>12.78511447730325</v>
+        <v>13.32850997036872</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>Z690 AERO G</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>-8.068167004968435e-05</v>
       </c>
       <c r="D19" t="n">
-        <v>13.1724542857107</v>
+        <v>14.51175994162896</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>Z690 AERO G</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>-0.0001461982482714161</v>
       </c>
       <c r="D20" t="n">
-        <v>13.26862576986512</v>
+        <v>12.92594540383483</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>Z690 AERO G</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>0.0005552442108078903</v>
       </c>
       <c r="D21" t="n">
-        <v>12.41920118130663</v>
+        <v>12.47170155108286</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>Z690 AERO G</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1385,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1397,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1409,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1421,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1433,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-01</t>
         </is>
       </c>
     </row>
